--- a/artfynd/A 40951-2018.xlsx
+++ b/artfynd/A 40951-2018.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY11"/>
+  <dimension ref="A1:AY13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1853,6 +1853,248 @@
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>112182711</v>
+      </c>
+      <c r="B12" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Stjärnsund, Dlr</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>565668.8439373589</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6699889.440735213</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>112183915</v>
+      </c>
+      <c r="B13" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Stjärnsund, Dlr</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>565683.2851149164</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6699911.431222402</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 40951-2018.xlsx
+++ b/artfynd/A 40951-2018.xlsx
@@ -1899,10 +1899,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>565668.8439373589</v>
+        <v>565669</v>
       </c>
       <c r="R12" t="n">
-        <v>6699889.440735213</v>
+        <v>6699889</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1932,19 +1932,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
@@ -2020,10 +2010,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>565683.2851149164</v>
+        <v>565683</v>
       </c>
       <c r="R13" t="n">
-        <v>6699911.431222402</v>
+        <v>6699911</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2053,19 +2043,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">

--- a/artfynd/A 40951-2018.xlsx
+++ b/artfynd/A 40951-2018.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY13"/>
+  <dimension ref="A1:AY14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>94360483</v>
+        <v>100189556</v>
       </c>
       <c r="B2" t="n">
-        <v>96334</v>
+        <v>89392</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,44 +692,39 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>blomknopp</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Sörboberget, Dlr</t>
+          <t>Hedemora, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>565784.6830013145</v>
+        <v>565710.6320501693</v>
       </c>
       <c r="R2" t="n">
-        <v>6699802.648075164</v>
+        <v>6700394.867918631</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -756,22 +751,22 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2021-06-20</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2021-06-20</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -798,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>94360735</v>
+        <v>96334345</v>
       </c>
       <c r="B3" t="n">
-        <v>98520</v>
+        <v>89356</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,36 +809,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>222498</v>
+        <v>5447</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Sörboberget, Dlr</t>
+          <t>Hedemora, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>565681.6469905056</v>
+        <v>565348.9174108147</v>
       </c>
       <c r="R3" t="n">
-        <v>6699892.635672216</v>
+        <v>6700212.542966858</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -870,22 +866,27 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2021-06-20</t>
+          <t>2021-09-27</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2021-06-20</t>
+          <t>2021-09-27</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:22</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>På granlåga i granplantage.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -894,33 +895,29 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>Barrträd</t>
-        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>94360456</v>
+        <v>112425213</v>
       </c>
       <c r="B4" t="n">
-        <v>96334</v>
+        <v>90466</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -929,43 +926,42 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>4769</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Hedemora, Dlr</t>
+          <t>Hedemora (Hedemora), Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>565789.2480928447</v>
+        <v>565673</v>
       </c>
       <c r="R4" t="n">
-        <v>6699769.148744237</v>
+        <v>6700080</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -989,22 +985,22 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2021-06-20</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>09:57</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2021-06-20</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>09:57</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,19 +1015,19 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>96241769</v>
+        <v>94360483</v>
       </c>
       <c r="B5" t="n">
         <v>96334</v>
@@ -1064,27 +1060,23 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>blomknopp</t>
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Hedemora, Dlr</t>
+          <t>Sörboberget, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>565750.3740434679</v>
+        <v>565784.6830013145</v>
       </c>
       <c r="R5" t="n">
-        <v>6699921.536218314</v>
+        <v>6699802.648075164</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1111,22 +1103,22 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2021-06-20</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>16:26</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2021-06-20</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>16:26</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1153,10 +1145,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>96241731</v>
+        <v>94360735</v>
       </c>
       <c r="B6" t="n">
-        <v>77506</v>
+        <v>98520</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1165,39 +1157,40 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>222498</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Hedemora, Dlr</t>
+          <t>Sörboberget, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>565750.3740434679</v>
+        <v>565681.6469905056</v>
       </c>
       <c r="R6" t="n">
-        <v>6699921.536218314</v>
+        <v>6699892.635672216</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1224,22 +1217,22 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2021-06-20</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>16:25</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2021-06-20</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>16:25</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1250,6 +1243,11 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>Barrträd</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1266,10 +1264,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>96334345</v>
+        <v>96241769</v>
       </c>
       <c r="B7" t="n">
-        <v>89356</v>
+        <v>96334</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1278,41 +1276,48 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Hedemora, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>565348.9174108147</v>
+        <v>565750.3740434679</v>
       </c>
       <c r="R7" t="n">
-        <v>6700212.542966858</v>
+        <v>6699921.536218314</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1339,27 +1344,22 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2021-09-27</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>16:26</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2021-09-27</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:22</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>På granlåga i granplantage.</t>
+          <t>16:26</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1368,29 +1368,28 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>96334977</v>
+        <v>96241731</v>
       </c>
       <c r="B8" t="n">
-        <v>93044</v>
+        <v>77506</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1399,40 +1398,39 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2809</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Hedemora, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>565546.2447679342</v>
+        <v>565750.3740434679</v>
       </c>
       <c r="R8" t="n">
-        <v>6699940.062954916</v>
+        <v>6699921.536218314</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1459,22 +1457,22 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2021-09-27</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>16:25</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2021-09-27</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>16:25</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1489,22 +1487,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>96335108</v>
+        <v>96334977</v>
       </c>
       <c r="B9" t="n">
-        <v>90319</v>
+        <v>93044</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1517,45 +1515,36 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4769</v>
+        <v>2809</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Hedw.) M.Fleisch.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Hedemora, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>565550.8325909179</v>
+        <v>565546.2447679342</v>
       </c>
       <c r="R9" t="n">
-        <v>6699959.899156544</v>
+        <v>6699940.062954916</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1587,7 +1576,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1597,7 +1586,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1606,7 +1595,6 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1625,10 +1613,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>100189556</v>
+        <v>96335108</v>
       </c>
       <c r="B10" t="n">
-        <v>89392</v>
+        <v>90319</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1637,39 +1625,49 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>4769</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Hedemora, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>565710.6320501693</v>
+        <v>565550.8325909179</v>
       </c>
       <c r="R10" t="n">
-        <v>6700394.867918631</v>
+        <v>6699959.899156544</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1696,22 +1694,22 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2021-09-27</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2021-09-27</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1720,18 +1718,19 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
@@ -1858,7 +1857,7 @@
         <v>112182711</v>
       </c>
       <c r="B12" t="n">
-        <v>98535</v>
+        <v>98961</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1969,7 +1968,7 @@
         <v>112183915</v>
       </c>
       <c r="B13" t="n">
-        <v>89405</v>
+        <v>89539</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2074,6 +2073,120 @@
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>94360456</v>
+      </c>
+      <c r="B14" t="n">
+        <v>96334</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Hedemora, Dlr</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>565789.2480928447</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6699769.148744237</v>
+      </c>
+      <c r="S14" t="n">
+        <v>25</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2021-06-20</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>09:57</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2021-06-20</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>09:57</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Annelie Hilmerby</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Annelie Hilmerby</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 40951-2018.xlsx
+++ b/artfynd/A 40951-2018.xlsx
@@ -917,7 +917,7 @@
         <v>112425213</v>
       </c>
       <c r="B4" t="n">
-        <v>90466</v>
+        <v>90480</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         <v>112182711</v>
       </c>
       <c r="B12" t="n">
-        <v>98961</v>
+        <v>98980</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>112183915</v>
       </c>
       <c r="B13" t="n">
-        <v>89539</v>
+        <v>89553</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>

--- a/artfynd/A 40951-2018.xlsx
+++ b/artfynd/A 40951-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>100189556</v>
+        <v>94360483</v>
       </c>
       <c r="B2" t="n">
-        <v>89392</v>
+        <v>96334</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,39 +692,44 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>blomknopp</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Hedemora, Dlr</t>
+          <t>Sörboberget, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>565710.6320501693</v>
+        <v>565784.6830013145</v>
       </c>
       <c r="R2" t="n">
-        <v>6700394.867918631</v>
+        <v>6699802.648075164</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -751,22 +756,22 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2021-06-20</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2021-06-20</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +798,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>96334345</v>
+        <v>94360735</v>
       </c>
       <c r="B3" t="n">
-        <v>89356</v>
+        <v>98520</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,37 +814,36 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5447</v>
+        <v>222498</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Hedemora, Dlr</t>
+          <t>Sörboberget, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>565348.9174108147</v>
+        <v>565681.6469905056</v>
       </c>
       <c r="R3" t="n">
-        <v>6700212.542966858</v>
+        <v>6699892.635672216</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -866,27 +870,22 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2021-09-27</t>
+          <t>2021-06-20</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2021-09-27</t>
+          <t>2021-06-20</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>11:22</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>På granlåga i granplantage.</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -895,29 +894,33 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Barrträd</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112425213</v>
+        <v>94360456</v>
       </c>
       <c r="B4" t="n">
-        <v>90480</v>
+        <v>96334</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,42 +929,43 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4769</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Hedemora (Hedemora), Dlr</t>
+          <t>Hedemora, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>565673</v>
+        <v>565789.2480928447</v>
       </c>
       <c r="R4" t="n">
-        <v>6700080</v>
+        <v>6699769.148744237</v>
       </c>
       <c r="S4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -985,22 +989,22 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2021-06-20</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>09:57</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2021-06-20</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>09:57</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1015,19 +1019,19 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>94360483</v>
+        <v>96241769</v>
       </c>
       <c r="B5" t="n">
         <v>96334</v>
@@ -1060,23 +1064,27 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>blomknopp</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Sörboberget, Dlr</t>
+          <t>Hedemora, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>565784.6830013145</v>
+        <v>565750.3740434679</v>
       </c>
       <c r="R5" t="n">
-        <v>6699802.648075164</v>
+        <v>6699921.536218314</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1103,22 +1111,22 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2021-06-20</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:26</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2021-06-20</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:26</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1145,10 +1153,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>94360735</v>
+        <v>96241731</v>
       </c>
       <c r="B6" t="n">
-        <v>98520</v>
+        <v>77506</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1157,40 +1165,39 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>222498</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Sörboberget, Dlr</t>
+          <t>Hedemora, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>565681.6469905056</v>
+        <v>565750.3740434679</v>
       </c>
       <c r="R6" t="n">
-        <v>6699892.635672216</v>
+        <v>6699921.536218314</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1217,22 +1224,22 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2021-06-20</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:25</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2021-06-20</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:25</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1243,11 +1250,6 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>Barrträd</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1264,10 +1266,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>96241769</v>
+        <v>96334345</v>
       </c>
       <c r="B7" t="n">
-        <v>96334</v>
+        <v>89356</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1276,48 +1278,41 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Hedemora, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>565750.3740434679</v>
+        <v>565348.9174108147</v>
       </c>
       <c r="R7" t="n">
-        <v>6699921.536218314</v>
+        <v>6700212.542966858</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1344,22 +1339,27 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2021-09-27</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>16:26</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2021-09-27</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>16:26</t>
+          <t>11:22</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>På granlåga i granplantage.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1368,28 +1368,29 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>96241731</v>
+        <v>96334977</v>
       </c>
       <c r="B8" t="n">
-        <v>77506</v>
+        <v>93044</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1398,39 +1399,40 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>2809</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Hedemora, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>565750.3740434679</v>
+        <v>565546.2447679342</v>
       </c>
       <c r="R8" t="n">
-        <v>6699921.536218314</v>
+        <v>6699940.062954916</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1457,22 +1459,22 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2021-09-27</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>16:25</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2021-09-27</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>16:25</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1487,22 +1489,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>96334977</v>
+        <v>96335108</v>
       </c>
       <c r="B9" t="n">
-        <v>93044</v>
+        <v>90319</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1515,36 +1517,45 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2809</v>
+        <v>4769</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Hedemora, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>565546.2447679342</v>
+        <v>565550.8325909179</v>
       </c>
       <c r="R9" t="n">
-        <v>6699940.062954916</v>
+        <v>6699959.899156544</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1576,7 +1587,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1586,7 +1597,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:57</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1595,6 +1606,7 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1613,10 +1625,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>96335108</v>
+        <v>100189556</v>
       </c>
       <c r="B10" t="n">
-        <v>90319</v>
+        <v>89392</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1625,49 +1637,39 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4769</v>
+        <v>1202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Hedemora, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>565550.8325909179</v>
+        <v>565710.6320501693</v>
       </c>
       <c r="R10" t="n">
-        <v>6699959.899156544</v>
+        <v>6700394.867918631</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1694,22 +1696,22 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2021-09-27</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2021-09-27</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1718,19 +1720,18 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
@@ -1854,10 +1855,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112182711</v>
+        <v>112183915</v>
       </c>
       <c r="B12" t="n">
-        <v>98980</v>
+        <v>89553</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1866,25 +1867,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>222498</v>
+        <v>1202</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1898,10 +1899,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>565669</v>
+        <v>565683</v>
       </c>
       <c r="R12" t="n">
-        <v>6699889</v>
+        <v>6699911</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1965,10 +1966,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112183915</v>
+        <v>112182711</v>
       </c>
       <c r="B13" t="n">
-        <v>89553</v>
+        <v>98980</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1977,25 +1978,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>222498</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2009,10 +2010,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>565683</v>
+        <v>565669</v>
       </c>
       <c r="R13" t="n">
-        <v>6699911</v>
+        <v>6699889</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2076,10 +2077,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>94360456</v>
+        <v>112425213</v>
       </c>
       <c r="B14" t="n">
-        <v>96334</v>
+        <v>90480</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2088,43 +2089,42 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>4769</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Hedemora, Dlr</t>
+          <t>Hedemora (Hedemora), Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>565789.2480928447</v>
+        <v>565673</v>
       </c>
       <c r="R14" t="n">
-        <v>6699769.148744237</v>
+        <v>6700080</v>
       </c>
       <c r="S14" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2148,22 +2148,22 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2021-06-20</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>09:57</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2021-06-20</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>09:57</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2178,12 +2178,12 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
